--- a/biology/Zoologie/Conodonti/Conodonti.xlsx
+++ b/biology/Zoologie/Conodonti/Conodonti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Conodonti sont un clade d'euconondontes (« vrais conodontes »).
 Selon Fossilworks, le taxon est au rang de la classe, alors que pour The Taxonomicon il se situe au rang de la sous-classe (sites consultés le 19 janvier 2021).
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,6 +553,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,7 +580,9 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">▲
  └─o Conodonta (éteint)
